--- a/3drugs.xlsx
+++ b/3drugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathilde.robin\Documents\__Treatment resistance\Team tools\EDITH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B93C36-51BD-42D8-923E-503537981529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B026A0CA-6158-422F-BFB9-31FA6700CB16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="9300" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>drugC</t>
+  </si>
+  <si>
+    <t>drugA_cabo</t>
+  </si>
+  <si>
+    <t>drugB_rmc</t>
+  </si>
+  <si>
+    <t>drugC_gem</t>
   </si>
 </sst>
 </file>
@@ -429,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:I96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,13 +452,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
